--- a/CharacterMatrices.xlsx
+++ b/CharacterMatrices.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="213">
   <si>
     <t>Character</t>
   </si>
@@ -485,9 +485,6 @@
     <t xml:space="preserve">Embryonic development. </t>
   </si>
   <si>
-    <t>0: not in connection with parental body; 1: in connetion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kind of sperm. </t>
   </si>
   <si>
@@ -518,9 +515,6 @@
     <t>Martin's comment</t>
   </si>
   <si>
-    <t>presence considered derived by definition</t>
-  </si>
-  <si>
     <t>evolved muscle to retract</t>
   </si>
   <si>
@@ -528,6 +522,147 @@
   </si>
   <si>
     <t>evolved joint</t>
+  </si>
+  <si>
+    <t>from what I understand, epaulettes are enlarged nuchal organs</t>
+  </si>
+  <si>
+    <t>why not</t>
+  </si>
+  <si>
+    <t>Martin's comment: articulation considered a novelty</t>
+  </si>
+  <si>
+    <t>Martin's comment: second pair considered an additional state</t>
+  </si>
+  <si>
+    <t>Martin's comment: triangularity considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: folding considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: fusion considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: additional pairs considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: articulation considered derived</t>
+  </si>
+  <si>
+    <t>ventral cirri considered ancestral</t>
+  </si>
+  <si>
+    <t>pores considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: inflation considered derived</t>
+  </si>
+  <si>
+    <t>change in length</t>
+  </si>
+  <si>
+    <t>dorsal cirri considered ancestral</t>
+  </si>
+  <si>
+    <t>inapplicable if dorsal cirri missing. Spiral shape considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: Articulation considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: Differentiation considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: Differentiation considered derived. He thinks it's neomorphic, I think elongation of present character</t>
+  </si>
+  <si>
+    <t>Martin's comment: Alternation considered derived. Not sure if I agree it's neo. Seems like change of location of expression to give rise to cirri?</t>
+  </si>
+  <si>
+    <t>Martin's comment: Restriction considered derived</t>
+  </si>
+  <si>
+    <t>Martin's comment: Differences considered derived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transformational </t>
+  </si>
+  <si>
+    <t>enlargement of existing structure</t>
+  </si>
+  <si>
+    <t>change in extisting structure</t>
+  </si>
+  <si>
+    <t>hollowing considered derived</t>
+  </si>
+  <si>
+    <t>absence of chaetae considered ancestral</t>
+  </si>
+  <si>
+    <t>modifications should be transformational but could be neomorphic if new function arises specific to anterior pair.</t>
+  </si>
+  <si>
+    <t>compound state considered ancestral</t>
+  </si>
+  <si>
+    <t>distinction of anterior chaetae -&gt; new function?</t>
+  </si>
+  <si>
+    <t>one specific change, not range of states</t>
+  </si>
+  <si>
+    <t>body region: parapodia&amp;chaetae, feeding&amp;sensory, axial</t>
+  </si>
+  <si>
+    <t>axial</t>
+  </si>
+  <si>
+    <t>feeding&amp;sensory</t>
+  </si>
+  <si>
+    <t>parapodia&amp;chaetae</t>
+  </si>
+  <si>
+    <t>reproductive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">related to cirri </t>
+  </si>
+  <si>
+    <t>0: not in connection with parental body; 1: in connection</t>
+  </si>
+  <si>
+    <t>unconnected development considered ancestral</t>
+  </si>
+  <si>
+    <t>joints are the neomorphic feature</t>
+  </si>
+  <si>
+    <t>trepan=toothed anterior margin of eversible proboscis</t>
+  </si>
+  <si>
+    <t>other taxa have same sclerotized lining, but in Syllidae it is thicker</t>
+  </si>
+  <si>
+    <t>hemigomph=articulated at right angle</t>
+  </si>
+  <si>
+    <t>biramous considered ancestral</t>
+  </si>
+  <si>
+    <t>considered that they fused as derived state</t>
+  </si>
+  <si>
+    <t>presence considered derived</t>
+  </si>
+  <si>
+    <t>not sure whether present here means absence of chaetae?</t>
+  </si>
+  <si>
+    <t>might have to leave this character out if I canny assign it!</t>
   </si>
 </sst>
 </file>
@@ -543,12 +678,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -563,11 +704,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F108"/>
+  <dimension ref="B1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,10 +1004,11 @@
     <col min="3" max="3" width="36.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,10 +1016,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -884,13 +1033,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -900,8 +1052,17 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -912,13 +1073,16 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -929,13 +1093,16 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -946,13 +1113,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -962,8 +1132,14 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -973,8 +1149,17 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -985,10 +1170,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -999,10 +1187,16 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1013,10 +1207,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1027,10 +1224,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1041,10 +1241,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1055,13 +1258,16 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1072,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1089,13 +1295,16 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1106,10 +1315,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1120,10 +1332,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1134,10 +1349,13 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1148,13 +1366,16 @@
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1165,13 +1386,16 @@
         <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1182,13 +1406,16 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1199,13 +1426,16 @@
         <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1216,13 +1446,16 @@
         <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1233,10 +1466,13 @@
         <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1247,13 +1483,16 @@
         <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
@@ -1264,13 +1503,16 @@
         <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1281,13 +1523,16 @@
         <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1298,13 +1543,16 @@
         <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1314,8 +1562,17 @@
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1325,8 +1582,14 @@
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1336,8 +1599,17 @@
       <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
@@ -1348,13 +1620,16 @@
         <v>51</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
@@ -1365,13 +1640,16 @@
         <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
@@ -1382,13 +1660,16 @@
         <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
@@ -1398,8 +1679,17 @@
       <c r="D36" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
@@ -1409,8 +1699,14 @@
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
@@ -1420,8 +1716,14 @@
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
@@ -1431,8 +1733,17 @@
       <c r="D39" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
@@ -1443,13 +1754,16 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>40</v>
       </c>
@@ -1460,13 +1774,16 @@
         <v>61</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>41</v>
       </c>
@@ -1476,8 +1793,17 @@
       <c r="D42" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>42</v>
       </c>
@@ -1487,8 +1813,17 @@
       <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>43</v>
       </c>
@@ -1498,8 +1833,17 @@
       <c r="D44" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>44</v>
       </c>
@@ -1510,13 +1854,16 @@
         <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>45</v>
       </c>
@@ -1527,13 +1874,16 @@
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>46</v>
       </c>
@@ -1543,8 +1893,17 @@
       <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>47</v>
       </c>
@@ -1555,13 +1914,16 @@
         <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>
@@ -1572,13 +1934,16 @@
         <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>49</v>
       </c>
@@ -1589,13 +1954,16 @@
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>50</v>
       </c>
@@ -1605,14 +1973,17 @@
       <c r="D51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>160</v>
+      <c r="E51" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>51</v>
       </c>
@@ -1623,13 +1994,16 @@
         <v>30</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>52</v>
       </c>
@@ -1640,13 +2014,16 @@
         <v>30</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>53</v>
       </c>
@@ -1657,13 +2034,16 @@
         <v>79</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>54</v>
       </c>
@@ -1674,13 +2054,16 @@
         <v>81</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>55</v>
       </c>
@@ -1691,13 +2074,16 @@
         <v>83</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>56</v>
       </c>
@@ -1708,13 +2094,16 @@
         <v>68</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>57</v>
       </c>
@@ -1725,13 +2114,16 @@
         <v>33</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>58</v>
       </c>
@@ -1742,13 +2134,16 @@
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>59</v>
       </c>
@@ -1758,8 +2153,17 @@
       <c r="D60" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>60</v>
       </c>
@@ -1769,8 +2173,17 @@
       <c r="D61" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>61</v>
       </c>
@@ -1780,8 +2193,17 @@
       <c r="D62" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>62</v>
       </c>
@@ -1792,13 +2214,16 @@
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>63</v>
       </c>
@@ -1808,8 +2233,17 @@
       <c r="D64" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>64</v>
       </c>
@@ -1820,13 +2254,16 @@
         <v>95</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>65</v>
       </c>
@@ -1836,8 +2273,17 @@
       <c r="D66" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>66</v>
       </c>
@@ -1847,8 +2293,17 @@
       <c r="D67" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>67</v>
       </c>
@@ -1859,13 +2314,16 @@
         <v>99</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>68</v>
       </c>
@@ -1875,8 +2333,17 @@
       <c r="D69" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>69</v>
       </c>
@@ -1886,8 +2353,17 @@
       <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>70</v>
       </c>
@@ -1898,13 +2374,16 @@
         <v>104</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>71</v>
       </c>
@@ -1914,8 +2393,14 @@
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>72</v>
       </c>
@@ -1925,8 +2410,14 @@
       <c r="D73" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>73</v>
       </c>
@@ -1937,13 +2428,16 @@
         <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>74</v>
       </c>
@@ -1953,8 +2447,14 @@
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>75</v>
       </c>
@@ -1965,13 +2465,16 @@
         <v>112</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>76</v>
       </c>
@@ -1981,8 +2484,17 @@
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>77</v>
       </c>
@@ -1992,8 +2504,14 @@
       <c r="D78" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>78</v>
       </c>
@@ -2003,8 +2521,14 @@
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>79</v>
       </c>
@@ -2014,8 +2538,14 @@
       <c r="D80" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>80</v>
       </c>
@@ -2025,8 +2555,17 @@
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>81</v>
       </c>
@@ -2036,8 +2575,14 @@
       <c r="D82" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>82</v>
       </c>
@@ -2048,13 +2593,16 @@
         <v>121</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>83</v>
       </c>
@@ -2064,8 +2612,17 @@
       <c r="D84" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>84</v>
       </c>
@@ -2076,13 +2633,16 @@
         <v>124</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>85</v>
       </c>
@@ -2092,8 +2652,14 @@
       <c r="D86" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>86</v>
       </c>
@@ -2103,8 +2669,14 @@
       <c r="D87" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>87</v>
       </c>
@@ -2114,8 +2686,14 @@
       <c r="D88" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>88</v>
       </c>
@@ -2125,8 +2703,14 @@
       <c r="D89" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>89</v>
       </c>
@@ -2136,8 +2720,14 @@
       <c r="D90" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>90</v>
       </c>
@@ -2147,8 +2737,14 @@
       <c r="D91" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>91</v>
       </c>
@@ -2159,13 +2755,16 @@
         <v>134</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>92</v>
       </c>
@@ -2176,13 +2775,16 @@
         <v>136</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>93</v>
       </c>
@@ -2192,8 +2794,17 @@
       <c r="D94" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>94</v>
       </c>
@@ -2203,8 +2814,14 @@
       <c r="D95" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>95</v>
       </c>
@@ -2214,8 +2831,14 @@
       <c r="D96" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>96</v>
       </c>
@@ -2225,8 +2848,14 @@
       <c r="D97" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>97</v>
       </c>
@@ -2237,13 +2866,16 @@
         <v>142</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>98</v>
       </c>
@@ -2254,13 +2886,16 @@
         <v>144</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>99</v>
       </c>
@@ -2271,13 +2906,16 @@
         <v>146</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>100</v>
       </c>
@@ -2288,13 +2926,16 @@
         <v>117</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>101</v>
       </c>
@@ -2305,13 +2946,16 @@
         <v>5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>102</v>
       </c>
@@ -2321,8 +2965,14 @@
       <c r="D103" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>103</v>
       </c>
@@ -2333,13 +2983,16 @@
         <v>151</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>104</v>
       </c>
@@ -2347,41 +3000,73 @@
         <v>152</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G108" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CharacterMatrices.xlsx
+++ b/CharacterMatrices.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Syllidae" sheetId="1" r:id="rId1"/>
     <sheet name="Hyolith Characters" sheetId="2" r:id="rId2"/>
     <sheet name="Weevil Characters" sheetId="3" r:id="rId3"/>
     <sheet name="Spider Chars" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1476">
   <si>
     <t>Character</t>
   </si>
@@ -31068,6 +31068,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Homoplasy</t>
   </si>
 </sst>
 </file>
@@ -31481,10 +31484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G108"/>
+  <dimension ref="B1:H108"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31496,7 +31499,7 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="60">
+    <row r="1" spans="2:8" ht="60">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31509,8 +31512,11 @@
       <c r="G1" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" ht="30" customHeight="1">
+      <c r="H1" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="30" customHeight="1">
       <c r="B2">
         <v>1</v>
       </c>
@@ -31529,8 +31535,11 @@
       <c r="G2" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="30">
+      <c r="H2">
+        <v>0.52381</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="30">
       <c r="B3">
         <v>2</v>
       </c>
@@ -31549,8 +31558,11 @@
       <c r="G3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="30">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30">
       <c r="B4">
         <v>3</v>
       </c>
@@ -31569,8 +31581,11 @@
       <c r="G4" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="30">
+      <c r="H4">
+        <v>0.14285999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30">
       <c r="B5">
         <v>4</v>
       </c>
@@ -31589,8 +31604,11 @@
       <c r="G5" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>5</v>
       </c>
@@ -31609,8 +31627,11 @@
       <c r="G6" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>6</v>
       </c>
@@ -31626,8 +31647,11 @@
       <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="30">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30">
       <c r="B8">
         <v>7</v>
       </c>
@@ -31646,8 +31670,11 @@
       <c r="G8" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>8</v>
       </c>
@@ -31663,8 +31690,11 @@
       <c r="G9" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>9</v>
       </c>
@@ -31683,8 +31713,11 @@
       <c r="G10" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>10</v>
       </c>
@@ -31700,8 +31733,11 @@
       <c r="G11" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>11</v>
       </c>
@@ -31717,8 +31753,11 @@
       <c r="G12" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12">
+        <v>0.42857000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>12</v>
       </c>
@@ -31734,8 +31773,11 @@
       <c r="G13" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="30">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30">
       <c r="B14">
         <v>13</v>
       </c>
@@ -31754,8 +31796,11 @@
       <c r="G14" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="30">
+      <c r="H14">
+        <v>0.14285999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30">
       <c r="B15">
         <v>14</v>
       </c>
@@ -31771,8 +31816,11 @@
       <c r="F15" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16">
         <v>15</v>
       </c>
@@ -31791,8 +31839,11 @@
       <c r="G16" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="30">
+      <c r="H16">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30">
       <c r="B17">
         <v>16</v>
       </c>
@@ -31808,8 +31859,11 @@
       <c r="G17" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>17</v>
       </c>
@@ -31825,8 +31879,11 @@
       <c r="G18" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>18</v>
       </c>
@@ -31842,8 +31899,11 @@
       <c r="G19" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="75">
+      <c r="H19">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="75">
       <c r="B20">
         <v>19</v>
       </c>
@@ -31862,8 +31922,11 @@
       <c r="G20" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="30">
+      <c r="H20">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="30">
       <c r="B21">
         <v>20</v>
       </c>
@@ -31882,8 +31945,11 @@
       <c r="G21" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="30">
+      <c r="H21">
+        <v>0.52381</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="30">
       <c r="B22">
         <v>21</v>
       </c>
@@ -31902,8 +31968,11 @@
       <c r="G22" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="45">
+      <c r="H22">
+        <v>0.61904999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="45">
       <c r="B23">
         <v>22</v>
       </c>
@@ -31922,8 +31991,11 @@
       <c r="G23" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="30">
+      <c r="H23">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="30">
       <c r="B24">
         <v>23</v>
       </c>
@@ -31942,8 +32014,11 @@
       <c r="G24" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="75">
+      <c r="H24">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="75">
       <c r="B25">
         <v>24</v>
       </c>
@@ -31959,8 +32034,11 @@
       <c r="G25" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="45">
+      <c r="H25">
+        <v>0.28571000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="45">
       <c r="B26">
         <v>25</v>
       </c>
@@ -31979,8 +32057,11 @@
       <c r="G26" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="30">
+      <c r="H26">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="30">
       <c r="B27">
         <v>26</v>
       </c>
@@ -31999,8 +32080,11 @@
       <c r="G27" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="30">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="30">
       <c r="B28">
         <v>27</v>
       </c>
@@ -32019,8 +32103,11 @@
       <c r="G28" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="45">
+      <c r="H28">
+        <v>0.19048000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="45">
       <c r="B29">
         <v>28</v>
       </c>
@@ -32039,8 +32126,11 @@
       <c r="G29" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29">
+        <v>0.76190000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30">
         <v>29</v>
       </c>
@@ -32059,8 +32149,11 @@
       <c r="G30" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="H30">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31">
         <v>30</v>
       </c>
@@ -32076,8 +32169,11 @@
       <c r="G31" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="45">
+      <c r="H31">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="45">
       <c r="B32">
         <v>31</v>
       </c>
@@ -32096,8 +32192,11 @@
       <c r="G32" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="30">
+      <c r="H32">
+        <v>0.19048000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="30">
       <c r="B33">
         <v>32</v>
       </c>
@@ -32116,8 +32215,11 @@
       <c r="G33" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="45">
+      <c r="H33">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="45">
       <c r="B34">
         <v>33</v>
       </c>
@@ -32136,8 +32238,11 @@
       <c r="G34" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="30">
+      <c r="H34">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="30">
       <c r="B35">
         <v>34</v>
       </c>
@@ -32156,8 +32261,11 @@
       <c r="G35" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="30">
+      <c r="H35">
+        <v>0.57142999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="30">
       <c r="B36">
         <v>35</v>
       </c>
@@ -32176,8 +32284,11 @@
       <c r="G36" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37">
         <v>36</v>
       </c>
@@ -32193,8 +32304,11 @@
       <c r="G37" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="30">
+      <c r="H37">
+        <v>0.71428999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="30">
       <c r="B38">
         <v>37</v>
       </c>
@@ -32210,8 +32324,11 @@
       <c r="G38" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="30">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="30">
       <c r="B39">
         <v>38</v>
       </c>
@@ -32230,8 +32347,11 @@
       <c r="G39" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" ht="30">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="30">
       <c r="B40">
         <v>39</v>
       </c>
@@ -32250,8 +32370,11 @@
       <c r="G40" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" ht="30">
+      <c r="H40">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="30">
       <c r="B41">
         <v>40</v>
       </c>
@@ -32270,8 +32393,11 @@
       <c r="G41" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="H41">
+        <v>0.23810000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42">
         <v>41</v>
       </c>
@@ -32290,8 +32416,11 @@
       <c r="G42" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43">
         <v>42</v>
       </c>
@@ -32310,8 +32439,11 @@
       <c r="G43" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="60">
+      <c r="H43">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="60">
       <c r="B44">
         <v>43</v>
       </c>
@@ -32330,8 +32462,11 @@
       <c r="G44" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" ht="60">
+      <c r="H44">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="60">
       <c r="B45">
         <v>44</v>
       </c>
@@ -32350,8 +32485,11 @@
       <c r="G45" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="H45">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46">
         <v>45</v>
       </c>
@@ -32370,8 +32508,11 @@
       <c r="G46" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="45">
+      <c r="H46">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="45">
       <c r="B47">
         <v>46</v>
       </c>
@@ -32390,8 +32531,11 @@
       <c r="G47" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="45">
+      <c r="H47">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="45">
       <c r="B48">
         <v>47</v>
       </c>
@@ -32410,8 +32554,11 @@
       <c r="G48" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="45">
+      <c r="H48">
+        <v>0.14285999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="45">
       <c r="B49">
         <v>48</v>
       </c>
@@ -32430,8 +32577,11 @@
       <c r="G49" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="30">
+      <c r="H49">
+        <v>0.14285999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="30">
       <c r="B50">
         <v>49</v>
       </c>
@@ -32450,8 +32600,11 @@
       <c r="G50" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="75">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="75">
       <c r="B51">
         <v>50</v>
       </c>
@@ -32470,8 +32623,11 @@
       <c r="G51" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" ht="30">
+      <c r="H51">
+        <v>0.28571000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="30">
       <c r="B52">
         <v>51</v>
       </c>
@@ -32490,8 +32646,11 @@
       <c r="G52" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" ht="30">
+      <c r="H52">
+        <v>0.52381</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="30">
       <c r="B53">
         <v>52</v>
       </c>
@@ -32510,8 +32669,11 @@
       <c r="G53" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" ht="45">
+      <c r="H53">
+        <v>0.52381</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="45">
       <c r="B54">
         <v>53</v>
       </c>
@@ -32530,8 +32692,11 @@
       <c r="G54" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" ht="75">
+      <c r="H54">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="75">
       <c r="B55">
         <v>54</v>
       </c>
@@ -32550,8 +32715,11 @@
       <c r="G55" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="56" spans="2:7">
+      <c r="H55">
+        <v>0.19048000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56">
         <v>55</v>
       </c>
@@ -32570,8 +32738,11 @@
       <c r="G56" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" ht="60">
+      <c r="H56">
+        <v>0.57142999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="60">
       <c r="B57">
         <v>56</v>
       </c>
@@ -32590,8 +32761,11 @@
       <c r="G57" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" ht="45">
+      <c r="H57">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="45">
       <c r="B58">
         <v>57</v>
       </c>
@@ -32610,8 +32784,11 @@
       <c r="G58" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="H58">
+        <v>0.14285999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59">
         <v>58</v>
       </c>
@@ -32630,8 +32807,11 @@
       <c r="G59" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" ht="30">
+      <c r="H59">
+        <v>0.14285999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="30">
       <c r="B60">
         <v>59</v>
       </c>
@@ -32650,8 +32830,11 @@
       <c r="G60" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="60">
+      <c r="H60">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="60">
       <c r="B61">
         <v>60</v>
       </c>
@@ -32670,8 +32853,11 @@
       <c r="G61" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="62" spans="2:7">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62">
         <v>61</v>
       </c>
@@ -32690,8 +32876,11 @@
       <c r="G62" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="63" spans="2:7">
+      <c r="H62">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63">
         <v>62</v>
       </c>
@@ -32710,8 +32899,11 @@
       <c r="G63" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="30">
+      <c r="H63">
+        <v>0.57142999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="30">
       <c r="B64">
         <v>63</v>
       </c>
@@ -32730,8 +32922,11 @@
       <c r="G64" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" ht="30">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="30">
       <c r="B65">
         <v>64</v>
       </c>
@@ -32750,8 +32945,11 @@
       <c r="G65" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="60">
+      <c r="H65">
+        <v>0.57142999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="60">
       <c r="B66">
         <v>65</v>
       </c>
@@ -32770,8 +32968,11 @@
       <c r="G66" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" ht="15" customHeight="1">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="15" customHeight="1">
       <c r="B67">
         <v>66</v>
       </c>
@@ -32790,8 +32991,11 @@
       <c r="G67" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="H67">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68">
         <v>67</v>
       </c>
@@ -32810,8 +33014,11 @@
       <c r="G68" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="30">
+      <c r="H68">
+        <v>0.28571000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="30">
       <c r="B69">
         <v>68</v>
       </c>
@@ -32830,8 +33037,11 @@
       <c r="G69" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" ht="30">
+      <c r="H69">
+        <v>0.28571000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="30">
       <c r="B70">
         <v>69</v>
       </c>
@@ -32850,8 +33060,11 @@
       <c r="G70" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" ht="30">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="30">
       <c r="B71">
         <v>70</v>
       </c>
@@ -32870,8 +33083,11 @@
       <c r="G71" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="72" spans="2:7">
+      <c r="H71">
+        <v>0.38095000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72">
         <v>71</v>
       </c>
@@ -32887,8 +33103,11 @@
       <c r="G72" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="73" spans="2:7">
+      <c r="H72">
+        <v>0.38095000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73">
         <v>72</v>
       </c>
@@ -32904,8 +33123,11 @@
       <c r="G73" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" ht="75">
+      <c r="H73">
+        <v>0.61904999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="75">
       <c r="B74">
         <v>73</v>
       </c>
@@ -32924,8 +33146,11 @@
       <c r="G74" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="75" spans="2:7">
+      <c r="H74">
+        <v>0.47619</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75">
         <v>74</v>
       </c>
@@ -32941,8 +33166,11 @@
       <c r="G75" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" ht="60">
+      <c r="H75">
+        <v>0.80952000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="60">
       <c r="B76">
         <v>75</v>
       </c>
@@ -32961,8 +33189,11 @@
       <c r="G76" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" ht="30">
+      <c r="H76">
+        <v>0.47619</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="30">
       <c r="B77">
         <v>76</v>
       </c>
@@ -32981,8 +33212,11 @@
       <c r="G77" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="78" spans="2:7">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78">
         <v>77</v>
       </c>
@@ -32998,8 +33232,11 @@
       <c r="G78" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="79" spans="2:7">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79">
         <v>78</v>
       </c>
@@ -33015,8 +33252,11 @@
       <c r="G79" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="80" spans="2:7">
+      <c r="H79">
+        <v>0.38095000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80">
         <v>79</v>
       </c>
@@ -33032,8 +33272,11 @@
       <c r="G80" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" ht="30">
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="30">
       <c r="B81">
         <v>80</v>
       </c>
@@ -33052,8 +33295,11 @@
       <c r="G81" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82">
         <v>81</v>
       </c>
@@ -33069,8 +33315,11 @@
       <c r="G82" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" ht="45">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="45">
       <c r="B83">
         <v>82</v>
       </c>
@@ -33089,8 +33338,11 @@
       <c r="G83" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" ht="45">
+      <c r="H83">
+        <v>0.42857000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="45">
       <c r="B84">
         <v>83</v>
       </c>
@@ -33109,8 +33361,11 @@
       <c r="G84" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" ht="45">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="45">
       <c r="B85">
         <v>84</v>
       </c>
@@ -33129,8 +33384,11 @@
       <c r="G85" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="H85">
+        <v>0.23810000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86">
         <v>85</v>
       </c>
@@ -33146,8 +33404,11 @@
       <c r="G86" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" ht="30">
+      <c r="H86">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="30">
       <c r="B87">
         <v>86</v>
       </c>
@@ -33163,8 +33424,11 @@
       <c r="G87" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="88" spans="2:7">
+      <c r="H87">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88">
         <v>87</v>
       </c>
@@ -33180,8 +33444,11 @@
       <c r="G88" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="89" spans="2:7">
+      <c r="H88">
+        <v>0.42857000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89">
         <v>88</v>
       </c>
@@ -33197,8 +33464,11 @@
       <c r="G89" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="90" spans="2:7">
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90">
         <v>89</v>
       </c>
@@ -33214,8 +33484,11 @@
       <c r="G90" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="91" spans="2:7">
+      <c r="H90">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91">
         <v>90</v>
       </c>
@@ -33231,8 +33504,11 @@
       <c r="G91" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="92" spans="2:7">
+      <c r="H91">
+        <v>0.42857000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
       <c r="B92">
         <v>91</v>
       </c>
@@ -33251,8 +33527,11 @@
       <c r="G92" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" ht="30">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="30">
       <c r="B93">
         <v>92</v>
       </c>
@@ -33271,8 +33550,11 @@
       <c r="G93" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" ht="30" customHeight="1">
+      <c r="H93">
+        <v>0.23810000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="30" customHeight="1">
       <c r="B94">
         <v>93</v>
       </c>
@@ -33291,8 +33573,11 @@
       <c r="G94" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="95" spans="2:7">
+      <c r="H94">
+        <v>0.19048000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
       <c r="B95">
         <v>94</v>
       </c>
@@ -33308,8 +33593,11 @@
       <c r="G95" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="96" spans="2:7">
+      <c r="H95">
+        <v>0.19048000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
       <c r="B96">
         <v>95</v>
       </c>
@@ -33325,8 +33613,11 @@
       <c r="G96" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" ht="30">
+      <c r="H96">
+        <v>0.28571000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="30">
       <c r="B97">
         <v>96</v>
       </c>
@@ -33342,8 +33633,11 @@
       <c r="G97" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="98" spans="2:7">
+      <c r="H97">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
       <c r="B98">
         <v>97</v>
       </c>
@@ -33362,8 +33656,11 @@
       <c r="G98" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" ht="45">
+      <c r="H98">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="45">
       <c r="B99">
         <v>98</v>
       </c>
@@ -33382,8 +33679,11 @@
       <c r="G99" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" ht="30">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="30">
       <c r="B100">
         <v>99</v>
       </c>
@@ -33402,8 +33702,11 @@
       <c r="G100" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="2:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
       <c r="B101">
         <v>100</v>
       </c>
@@ -33422,8 +33725,11 @@
       <c r="G101" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" ht="30" customHeight="1">
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="30" customHeight="1">
       <c r="B102">
         <v>101</v>
       </c>
@@ -33442,8 +33748,11 @@
       <c r="G102" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="103" spans="2:7">
+      <c r="H102">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
       <c r="B103">
         <v>102</v>
       </c>
@@ -33459,8 +33768,11 @@
       <c r="G103" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" ht="60">
+      <c r="H103">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="60">
       <c r="B104">
         <v>103</v>
       </c>
@@ -33479,8 +33791,11 @@
       <c r="G104" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" ht="45">
+      <c r="H104">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="45">
       <c r="B105">
         <v>104</v>
       </c>
@@ -33499,8 +33814,11 @@
       <c r="G105" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" ht="45">
+      <c r="H105">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="45">
       <c r="B106">
         <v>105</v>
       </c>
@@ -33519,8 +33837,11 @@
       <c r="G106" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" ht="30">
+      <c r="H106">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="30">
       <c r="B107">
         <v>106</v>
       </c>
@@ -33539,8 +33860,11 @@
       <c r="G107" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" ht="45">
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="45">
       <c r="B108">
         <v>107</v>
       </c>
@@ -33555,6 +33879,9 @@
         <v>212</v>
       </c>
       <c r="G108" s="3"/>
+      <c r="H108">
+        <v>0.19048000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40124,7 +40451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D103" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -44377,7 +44704,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="399.75">
+    <row r="81" spans="1:2" ht="381.75">
       <c r="A81">
         <v>80</v>
       </c>
@@ -44449,7 +44776,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="145.5">
+    <row r="90" spans="1:2" ht="127.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -44513,7 +44840,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="255.75">
+    <row r="98" spans="1:2" ht="238.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -44649,7 +44976,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="92.25">
+    <row r="115" spans="1:2" ht="74.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -44673,7 +45000,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="129">
+    <row r="118" spans="1:2" ht="128.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -44769,7 +45096,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="72.75">
+    <row r="130" spans="1:2" ht="54.75">
       <c r="A130">
         <v>129</v>
       </c>
@@ -44785,7 +45112,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="92.25">
+    <row r="132" spans="1:2" ht="74.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -44937,7 +45264,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="345">
+    <row r="151" spans="1:2" ht="327.75">
       <c r="A151">
         <v>150</v>
       </c>
@@ -45073,7 +45400,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="108.75">
+    <row r="168" spans="1:2" ht="90.75">
       <c r="A168">
         <v>167</v>
       </c>
@@ -45121,7 +45448,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="203.25">
+    <row r="174" spans="1:2" ht="204">
       <c r="A174">
         <v>173</v>
       </c>
@@ -45281,7 +45608,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="164.25">
+    <row r="194" spans="1:2" ht="146.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -45337,7 +45664,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="144.75">
+    <row r="201" spans="1:2" ht="126.75">
       <c r="A201">
         <v>200</v>
       </c>
@@ -45617,7 +45944,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="201.75">
+    <row r="236" spans="1:2" ht="183.75">
       <c r="A236">
         <v>235</v>
       </c>
@@ -45696,7 +46023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/CharacterMatrices.xlsx
+++ b/CharacterMatrices.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Syllidae" sheetId="1" r:id="rId1"/>
-    <sheet name="Hyolith Characters" sheetId="2" r:id="rId2"/>
-    <sheet name="Weevil Characters" sheetId="3" r:id="rId3"/>
-    <sheet name="Spider Chars" sheetId="4" r:id="rId4"/>
-    <sheet name="Bat Characters 1" sheetId="5" r:id="rId5"/>
+    <sheet name="Scolebythidae" sheetId="6" r:id="rId2"/>
+    <sheet name="Hyolith Characters" sheetId="2" r:id="rId3"/>
+    <sheet name="Weevil Characters" sheetId="3" r:id="rId4"/>
+    <sheet name="Spider Chars" sheetId="4" r:id="rId5"/>
+    <sheet name="Bat Characters 1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="1523">
   <si>
     <t>Character</t>
   </si>
@@ -31071,6 +31072,147 @@
   </si>
   <si>
     <t>Homoplasy</t>
+  </si>
+  <si>
+    <t>Forewing marginal cell</t>
+  </si>
+  <si>
+    <t>0=apex on margin of wing; 1=apex curving away from margin of wing; 2=open, Rs present as a short stub; 3=open, Rs long, terminating near wing margin</t>
+  </si>
+  <si>
+    <t>First submarginal cell</t>
+  </si>
+  <si>
+    <t>0=short; 1=elongate; 2=open</t>
+  </si>
+  <si>
+    <t>Clypeal apex</t>
+  </si>
+  <si>
+    <t>0=short; 1=produced</t>
+  </si>
+  <si>
+    <t>Frontal prominence</t>
+  </si>
+  <si>
+    <t>Facial depression</t>
+  </si>
+  <si>
+    <t>0=flat lateral to antennal toruli; 1=deprerssed lateral to antennal toruli</t>
+  </si>
+  <si>
+    <t>Ocellar triangle</t>
+  </si>
+  <si>
+    <t>0=equilateral; 1=obtuse</t>
+  </si>
+  <si>
+    <t>Occipital carina</t>
+  </si>
+  <si>
+    <t>Malar space</t>
+  </si>
+  <si>
+    <t>0=very short; 1=one-third basal mandibular width; 2=one-half or more basal mandibular width</t>
+  </si>
+  <si>
+    <t>Pronotal collar</t>
+  </si>
+  <si>
+    <t>Notauli</t>
+  </si>
+  <si>
+    <t>0=present; 1=reduced posteriorly; 2=not apparent</t>
+  </si>
+  <si>
+    <t>Metapostnotum</t>
+  </si>
+  <si>
+    <t>0=distinct; 1=partially obliterated; 2=not apparent</t>
+  </si>
+  <si>
+    <t>Mesotibial spurs</t>
+  </si>
+  <si>
+    <t>0=two; 1=one; 2=none</t>
+  </si>
+  <si>
+    <t>Metatibial spurs</t>
+  </si>
+  <si>
+    <t>Female sixth sternum</t>
+  </si>
+  <si>
+    <t>0=simple; 1=with polished area and setae</t>
+  </si>
+  <si>
+    <t>Forewing Rs, apical portion</t>
+  </si>
+  <si>
+    <t>0=tubular; 1=nebulous</t>
+  </si>
+  <si>
+    <t>Forewing 1m=cu</t>
+  </si>
+  <si>
+    <t>0=tubular; 1=nebulous or absent</t>
+  </si>
+  <si>
+    <t>Forewing basal part Rs+M</t>
+  </si>
+  <si>
+    <t>0=tubular; 1=partly nebulous</t>
+  </si>
+  <si>
+    <t>Forewing Cu distad 1cm-cu</t>
+  </si>
+  <si>
+    <t>Forewing Cu basad 1m-cu</t>
+  </si>
+  <si>
+    <t>Median ocellus</t>
+  </si>
+  <si>
+    <t>0=aligned or anterior to upper tangent of compound eyes; 1=well posterior to upper tangent of compound eyes</t>
+  </si>
+  <si>
+    <t>Parapsidal lines</t>
+  </si>
+  <si>
+    <t>Metafemus</t>
+  </si>
+  <si>
+    <t>0=not flattened; 1=flattened</t>
+  </si>
+  <si>
+    <t>Mesoscutellum</t>
+  </si>
+  <si>
+    <t>0=separated from mesoscutum by transverse furrow; 1=separated from mesoscutum by pair of segregated pits</t>
+  </si>
+  <si>
+    <t>Forewing R1</t>
+  </si>
+  <si>
+    <t>0=present; 1=absent or vestigial at best</t>
+  </si>
+  <si>
+    <t>prosternum</t>
+  </si>
+  <si>
+    <t>0=unmodified; 1=expanded into large diamond shape and pushing procoxae and posterior corners of propleura apart</t>
+  </si>
+  <si>
+    <t>pronotum</t>
+  </si>
+  <si>
+    <t>0=short; 1=long in relation to mesoscutal length</t>
+  </si>
+  <si>
+    <t>pronotal anterior border</t>
+  </si>
+  <si>
+    <t>0=declivitous; 1=not declivitous</t>
   </si>
 </sst>
 </file>
@@ -31486,7 +31628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -33890,6 +34032,336 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I226"/>
   <sheetViews>
@@ -40447,7 +40919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
@@ -43771,7 +44243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
@@ -44704,7 +45176,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="381.75">
+    <row r="81" spans="1:2" ht="399.75">
       <c r="A81">
         <v>80</v>
       </c>
@@ -44776,7 +45248,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="127.5">
+    <row r="90" spans="1:2" ht="145.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -44840,7 +45312,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="238.5">
+    <row r="98" spans="1:2" ht="255.75">
       <c r="A98">
         <v>97</v>
       </c>
@@ -44976,7 +45448,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="74.25">
+    <row r="115" spans="1:2" ht="92.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -45000,7 +45472,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="128.25">
+    <row r="118" spans="1:2" ht="129">
       <c r="A118">
         <v>117</v>
       </c>
@@ -45096,7 +45568,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="54.75">
+    <row r="130" spans="1:2" ht="72.75">
       <c r="A130">
         <v>129</v>
       </c>
@@ -45112,7 +45584,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="74.25">
+    <row r="132" spans="1:2" ht="92.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -45264,7 +45736,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="327.75">
+    <row r="151" spans="1:2" ht="345">
       <c r="A151">
         <v>150</v>
       </c>
@@ -45400,7 +45872,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="90.75">
+    <row r="168" spans="1:2" ht="108.75">
       <c r="A168">
         <v>167</v>
       </c>
@@ -45448,7 +45920,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="204">
+    <row r="174" spans="1:2" ht="203.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -45608,7 +46080,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="146.25">
+    <row r="194" spans="1:2" ht="164.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -45664,7 +46136,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="126.75">
+    <row r="201" spans="1:2" ht="144.75">
       <c r="A201">
         <v>200</v>
       </c>
@@ -45944,7 +46416,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="183.75">
+    <row r="236" spans="1:2" ht="201.75">
       <c r="A236">
         <v>235</v>
       </c>
@@ -46019,7 +46491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F278"/>
   <sheetViews>

--- a/CharacterMatrices.xlsx
+++ b/CharacterMatrices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Syllidae" sheetId="1" r:id="rId1"/>
@@ -34035,7 +34035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -34201,7 +34201,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -34267,7 +34267,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60">
+    <row r="21" spans="1:3" ht="45">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -34300,7 +34300,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60">
+    <row r="24" spans="1:3" ht="45">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -34322,7 +34322,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="60">
+    <row r="26" spans="1:3" ht="45">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -34333,7 +34333,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30">
+    <row r="27" spans="1:3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -40923,7 +40923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="D103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D103" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>

--- a/CharacterMatrices.xlsx
+++ b/CharacterMatrices.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dxsb43\GitHub\Partitioning_Strategies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local\dxsb43\GitHub\Partitioning_Strategies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12885" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Syllidae" sheetId="1" r:id="rId1"/>
     <sheet name="Scolebythidae" sheetId="6" r:id="rId2"/>
     <sheet name="Hyolith Characters" sheetId="2" r:id="rId3"/>
     <sheet name="Weevil Characters" sheetId="3" r:id="rId4"/>
-    <sheet name="Spider Chars" sheetId="4" r:id="rId5"/>
-    <sheet name="Bat Characters 1" sheetId="5" r:id="rId6"/>
+    <sheet name="THER chars" sheetId="7" r:id="rId5"/>
+    <sheet name="Spider Chars" sheetId="4" r:id="rId6"/>
+    <sheet name="Bat Characters 1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="1788">
   <si>
     <t>Character</t>
   </si>
@@ -31179,9 +31180,6 @@
     <t>Parapsidal lines</t>
   </si>
   <si>
-    <t>Metafemus</t>
-  </si>
-  <si>
     <t>0=not flattened; 1=flattened</t>
   </si>
   <si>
@@ -31213,6 +31211,804 @@
   </si>
   <si>
     <t>0=declivitous; 1=not declivitous</t>
+  </si>
+  <si>
+    <t>13  'Fertilization duct sclerotization (accessory sac)' / light 'thick and heavy (Synotaxus)',</t>
+  </si>
+  <si>
+    <t>14  Male_palpal_tibial_distal_end / subequal_or_slightly_wider_than_base 'distinctly broadened, clearly =&gt; 2x base width.',</t>
+  </si>
+  <si>
+    <t>15  Male_palpal_tibial_rim / uniform_or_only_slightly_asymmetric 'strongly and asymmetrically protruding, scoop-shaped (Fig 36D)',</t>
+  </si>
+  <si>
+    <t>16  Male_palpal_tibial_rim_setal_conformation / irregular 'regular row of long, strong setae',</t>
+  </si>
+  <si>
+    <t>17  Male_palpal_tibial_rim_relative_to_cymbium / protruding_tibial_rim_faces_dorsal_cymbial_margin protruding_tibial_rim_faces_bulb,</t>
+  </si>
+  <si>
+    <t>18  Male_palpal_tibia_retrolateral_trichobothria / three_or_more two one_or_none,</t>
+  </si>
+  <si>
+    <t>19  Male_palpal_tibia_prolateral_trichobothria / two_or_more one none,</t>
+  </si>
+  <si>
+    <t>20  Male_palpal_patella_spur / absent present,</t>
+  </si>
+  <si>
+    <t>21  Cymbium / entire expanded_retrolaterally,</t>
+  </si>
+  <si>
+    <t>22  Cymbial_retromargin / entire 'with a small distal apophysis containing the cymbial hood (Ameridion, Fig. 13B, E)' retromargin_groove,</t>
+  </si>
+  <si>
+    <t>23  Cymbium_dorsobasal_margin / 'entire (Figs. 28A, C, 31A, C)' 'strongly incised (Figs. 10C, 12C)' 'strongly modified with a ridge of parallel teeth (Tidarren)',</t>
+  </si>
+  <si>
+    <t>24  Cymbial_distal_promargin / entire 'with an apophysis (Argyrodes, Figs. 31D, 92E), Crustulina, Fig. 42B)' 'constricted and flattened (Latrodectus, Fig. 54B-C)',</t>
+  </si>
+  <si>
+    <t>25  Cymbial_mesal_margin / entire 'incised (Anelosimus, Figs. 17D, 20A)',</t>
+  </si>
+  <si>
+    <t>26  Cymbial_tip_sclerotization / like_rest_of_cymbium 'lightly sclerotized, appears white',</t>
+  </si>
+  <si>
+    <t>27  Cymbial_tip_setae / like_other_setae 'thick and strongly curved (Kochiura, Figs. 51B, 52C)',</t>
+  </si>
+  <si>
+    <t>28  Cymbial_sheath / absent present,</t>
+  </si>
+  <si>
+    <t>29  Paracymbium / present absent,</t>
+  </si>
+  <si>
+    <t>30  Paracymbial_form / 'Argiope-like (Fig. 91A)' 'Tetragnatha-like (Fig. 91B)' 'pimoid-like (Fig. 88A)' 'linyphiid-like (Fig. 88B)' 'cup-shaped (Fig. 88C)' 'Nesticus-like (Fig. 88D)',</t>
+  </si>
+  <si>
+    <t>31  'Bulb - cymbium lock mechanism (BC lock)' / absent present,</t>
+  </si>
+  <si>
+    <t>32  Lock_placement / 'basal (Carniella, Fig. 36C)' 'distal (Figs. 67B, 92F-G, I, M)' 'central (Fig. 92H)',</t>
+  </si>
+  <si>
+    <t>33  Lock_mechanism / 'hook (Figs 31F, 60D, 91A, 92D-E, J-L)' 'hood (Figs 18A, 75B, 92F-I, M)' 'Theridula (Fig 81D)',</t>
+  </si>
+  <si>
+    <t>34  Cymbial_hook_orientation / 'facing downwards (Figs. 91A, 92D-E, J-K)' 'facing upwards (Fig. 60C-D, 92L)',</t>
+  </si>
+  <si>
+    <t>35  Cymbial_hook_location / 'inside cymbium (Fig. 92D-E, J-K)' 'ectal cymbial margin (Figs. 67B, 92L).',</t>
+  </si>
+  <si>
+    <t>36  Cymbial_hook_inferior_groove / absent 'present (Fig. 92D, J-K)',</t>
+  </si>
+  <si>
+    <t>37  Cymbial_hook_distal_portion / 'blunt (Figs. 31F, 92D-E)' 'tapering to a narrow tongue (Figs. 66B, 67D, 92L)',</t>
+  </si>
+  <si>
+    <t>38  Cymbial_hood_size / 'narrow (Fig. 92F-H)' 'broad (Fig. 92I)' 'Spintharus (Fig. 92M)',</t>
+  </si>
+  <si>
+    <t>39  Cymbial_hood_region / 'translucent, hood visible through cymbium (Anelosimus, Figs. 90A, 91C)' 'opaque, hood not visible',</t>
+  </si>
+  <si>
+    <t>40  Bulbal_sclerite_of_lock_mechanism / MA embolus_base,</t>
+  </si>
+  <si>
+    <t>41  Alveolus_placement / ectal central mesal,</t>
+  </si>
+  <si>
+    <t>42  Alveolar_cavity / 'simple, unsclerotized' with_alveolar_sclerite,</t>
+  </si>
+  <si>
+    <t>43  Alveolus_shape / 'circular or oval (Fig. 92A-H)' 'with a mesal extension (Fig. 92A)',</t>
+  </si>
+  <si>
+    <t>44  Subtegular_retrolateral_margin / 'entire (e.g. Figs. 4A-B, 10A)' 'with a prominent rounded lobe (Fig. 2A-B)',</t>
+  </si>
+  <si>
+    <t>45  Tegulum_size / '&lt; half cymbial cavity' 'huge, &gt; half cymbial cavity (Dipoena, Fig. 4B-C))',</t>
+  </si>
+  <si>
+    <t>46  Tegulum_ectal_margin / entire 'protruded (Fig. 20D)',</t>
+  </si>
+  <si>
+    <t>47  Tegular_groove / absent 'present (Fig. 28B)',</t>
+  </si>
+  <si>
+    <t>48  Tegular_arch / absent present,</t>
+  </si>
+  <si>
+    <t>49  Tegular_pit / absent present,</t>
+  </si>
+  <si>
+    <t>50  Tegular_pit_embolic_interaction / via_embolic_base via_embolic_apophysis,</t>
+  </si>
+  <si>
+    <t>51  SDT_Switchbacks_I / present absent,</t>
+  </si>
+  <si>
+    <t>52  &amp; / separate touching,</t>
+  </si>
+  <si>
+    <t>53  _II / entirely_in_tegulum terminates_in_embolus,</t>
+  </si>
+  <si>
+    <t>54  SDT_SB_I / absent 'present (Anelosimus, Fig. 93B)',</t>
+  </si>
+  <si>
+    <t>55  SDT_SB_II / divergent parallel,</t>
+  </si>
+  <si>
+    <t>56  'SDT post-SB II turn' / in_plane_of_first_loop_from_fundus 'out of plane of first loop, against tegular wall',</t>
+  </si>
+  <si>
+    <t>57  SDT_SB_I / absent present,</t>
+  </si>
+  <si>
+    <t>58  &amp; / absent present,</t>
+  </si>
+  <si>
+    <t>59  _II_reservoir_segment_alignment / absent 'present (Fig. 93E)',</t>
+  </si>
+  <si>
+    <t>60  SDT_SB_I / 'clockwise  (left palp, ventral view)' 'counter-clockwise',</t>
+  </si>
+  <si>
+    <t>61  &amp; / relatively_gradual duct_narrows_abruptly_before_SB_I,</t>
+  </si>
+  <si>
+    <t>62  _II_orientation / present absent,</t>
+  </si>
+  <si>
+    <t>63  SDT_RSB_I / 'width subequal to base (Figs, 10A, 13D, 91 A-I)' 'grossly enlarged (Figs. 46A, 67B, 69B, 83A-B, 90F-G)',</t>
+  </si>
+  <si>
+    <t>64  &amp; / 'with a groove for embolus (Figs. 10A, 28D, 69B)' 'entire (Figs. 13D, 17F, 52C-D)',</t>
+  </si>
+  <si>
+    <t>65  _II / 'smooth (Figs. 75B, 77B-C)' ' heavily ridged (Figs. 10B-C, 44D. 67C, 69D)',</t>
+  </si>
+  <si>
+    <t>66  SDT_SB_III / entire complex 'Helvibis (Fig. 49A-C)',</t>
+  </si>
+  <si>
+    <t>67  SDT_SB_IV / like_base more_than_base,</t>
+  </si>
+  <si>
+    <t>68  SDT_entering_embolus / entire grooved,</t>
+  </si>
+  <si>
+    <t>69  SDT_constriction / 'sclerotized tegular margin (Figs. 10A, 34C, 64C)' 'lightly sclerotized region apical to tegular margin (Figs. 75A-C, 77A-C)',</t>
+  </si>
+  <si>
+    <t>70  Conductor / absent present,</t>
+  </si>
+  <si>
+    <t>71  Conductor_tip / present absent,</t>
+  </si>
+  <si>
+    <t>72  Conductor / sperm_duct_loop_not_inside_MA 'sperm duct loop inside MA (Figs. 90F, 91B)',</t>
+  </si>
+  <si>
+    <t>73  Conductor_surface / membranous fused,</t>
+  </si>
+  <si>
+    <t>74  Conductor_folding / broad narrow,</t>
+  </si>
+  <si>
+    <t>75  Conductor_tip_sclerotization / unbranched 'two nearly equally sized branches (Fig. 22A-B)',</t>
+  </si>
+  <si>
+    <t>76  Conductor_base / entire with_a_distinct_apophysis,</t>
+  </si>
+  <si>
+    <t>77  Conductor_origin / absent present,</t>
+  </si>
+  <si>
+    <t>78  Subconductor / entire hooded,</t>
+  </si>
+  <si>
+    <t>79  MA / 'narrow, pit-like (Figs. 31F, 34D)' 'scoop-shaped (Figs. 60D, 66B, 67D)',</t>
+  </si>
+  <si>
+    <t>80  MA_and_sperm_duct / absent present,</t>
+  </si>
+  <si>
+    <t>81  'MA-tegulum attachment' / 'unbranched (normal)' 'two branches (Fig. 52D)',</t>
+  </si>
+  <si>
+    <t>82  'MA-tegular membrane connection' / entire 'with a small apophysis (Fig. 67A-B)',</t>
+  </si>
+  <si>
+    <t>83  MA_form / entire 'grooved (Fig. 44C)' 'excavate (Synotaxus, Fig. 88C)',</t>
+  </si>
+  <si>
+    <t>84  MA_central_region / bulky 'huge, membranous flap (Figs. 37B, 67B)',</t>
+  </si>
+  <si>
+    <t>85  MA_apophysis_II / entire 'hooked (Figs. 17A-B, F, 22D)',</t>
+  </si>
+  <si>
+    <t>86  MA_distal_tip / smooth 'ridged (Figs. 7A-B, 17F, 31D, 34D, 54A, 56B, 86A)',</t>
+  </si>
+  <si>
+    <t>87  MA_hood_form / loosely_associated_to_or_resting_in_TTA_shallow_groove 'parts of E entirely enclosed in TTA (Figs. 37A-B, 44C, 89C)',</t>
+  </si>
+  <si>
+    <t>88  TTA / entire bifid,</t>
+  </si>
+  <si>
+    <t>89  TTA_branches / retroventral_on_tegulum 'retrolateral (ectal), partially or completely hidden by cymbium (Figs 44C, 60A-C, 67B)',</t>
+  </si>
+  <si>
+    <t>90  TTA_apex / smooth 'ridged (Figs. 20F, 31D, 34E)',</t>
+  </si>
+  <si>
+    <t>91  TTA_form / short_to_moderately_elongate 'extremely long, &gt;2 spirals (Figs. 54D, 73A-E)',</t>
+  </si>
+  <si>
+    <t>92  TTA_basal_portion / 'thin, much of E spiral subequal to E tip' 'thick, entire E spiral much broader than tip',</t>
+  </si>
+  <si>
+    <t>93  TTA_distal_tip / suboval_or_round distinctly_flattened_and_with_pars_pendula,</t>
+  </si>
+  <si>
+    <t>94  TTA_surface / entire with_transverse_suture_or_fracture_plane,</t>
+  </si>
+  <si>
+    <t>95  Embolus_and_TTA / 'entire (normal)' deeply_grooved,</t>
+  </si>
+  <si>
+    <t>96  Embolus_tip / abrupt 'with a distal apophysis (EA, Fig. 34E)',</t>
+  </si>
+  <si>
+    <t>97  Embolus_origin / fixed 'membraneous, flexible',</t>
+  </si>
+  <si>
+    <t>98  Embolus_surface / entire._smooth lobed,</t>
+  </si>
+  <si>
+    <t>99  Embolus_shape / absent present,</t>
+  </si>
+  <si>
+    <t>100  Embolus_spiral_width / entire 'break-off point',</t>
+  </si>
+  <si>
+    <t>101  Embolus_spiral / absent present,</t>
+  </si>
+  <si>
+    <t>102  Embolus_form / juxtaposed separate,</t>
+  </si>
+  <si>
+    <t>103  Embolus_distal_rim / flush_with_carapace 'on tubercle (Argyrodes)' all_eyes_on_tubercle,</t>
+  </si>
+  <si>
+    <t>104  Embolic_base_terminus / subequal_or_slightly_larger_than_ALE clearly_smaller_than_ALE,</t>
+  </si>
+  <si>
+    <t>105  'Embolus-tegulum junction' / '&gt; 2 AME diameters' '= &lt;2 AME diameters',</t>
+  </si>
+  <si>
+    <t>106  Embolic_base / toothed smooth,</t>
+  </si>
+  <si>
+    <t>107  Embolic_division_b / blunt 'pointed, sharp',</t>
+  </si>
+  <si>
+    <t>108  Embolus_inserted_piece / four_or_more three two one,</t>
+  </si>
+  <si>
+    <t>109  Extra_tegular_sclerite / '=&lt; adjacent tooth' much_larger_than_adjacent_tooth,</t>
+  </si>
+  <si>
+    <t>110  'Lateral eyes (male)' / toothed smooth,</t>
+  </si>
+  <si>
+    <t>111  'Median eyes (male)' / four_or_more three two one,</t>
+  </si>
+  <si>
+    <t>112  'AME size (male)' / smooth denticulate,</t>
+  </si>
+  <si>
+    <t>113  'AME-ALE separation (females)' / subequal 'male much larger (Tetragnatha, Enoplognatha)',</t>
+  </si>
+  <si>
+    <t>114  Cheliceral_promargin / smooth stridulatory,</t>
+  </si>
+  <si>
+    <t>115  Cheliceral_anterior_tooth_shape / evenly_rounded 'with a distinct knob (Figs. 76B, 78G)',</t>
+  </si>
+  <si>
+    <t>116  Cheliceral_anterior_tooth_number / absent 'present (Enoplognatha, Fig. 44I)',</t>
+  </si>
+  <si>
+    <t>117  Cheliceral_proximal_tooth / 'reaching tip of endites, or nearly so' 'short, not nearly reaching tip of endites',</t>
+  </si>
+  <si>
+    <t>118  Cheliceral_posterior_margin / base_wider_than_palpal_coxae_and_coxae_II 'base subequal to palpal coxae, narrower than coxae II',</t>
+  </si>
+  <si>
+    <t>119  Cheliceral_posterior_tooth_number / subequal_to_cheliceral_groove '&gt;2x cheliceral groove (Enoplognatha, Fig 44I)',</t>
+  </si>
+  <si>
+    <t>120  Cheliceral_furrow / cylindrical 'elongated, sickle-shaped',</t>
+  </si>
+  <si>
+    <t>121  Cheliceral_sexual_dimorphism / smooth_or_weakly_serrate strongly_serrate_and_curved,</t>
+  </si>
+  <si>
+    <t>122  'Cheliceral ectal surface (male)' / present absent,</t>
+  </si>
+  <si>
+    <t>123  Cheliceral_anterior_base / 'smooth (Fig. 5D)' 'rugose - setal bases elevated (Fig. 71D-E)' 'scaly (Fig. 60F-G)' 'rippled (Fig. 38A)' 'bumpy (Fig. 50E-F)' pits_surrounding_setal_bases,</t>
+  </si>
+  <si>
+    <t>124  'Cheliceral apophysis (male)' / '&lt;= 0.25-0.5x the length' '&gt; 0.5x the length',</t>
+  </si>
+  <si>
+    <t>125  Cheliceral_paturon_length / uniform longitudinal_dark_band,</t>
+  </si>
+  <si>
+    <t>126  Cheliceral_paturon_width / longer_than_wide subequal,</t>
+  </si>
+  <si>
+    <t>127  'Cheliceral fang length (male)' / 'sparsely or patchily hirsute (Fig. 48D)' 'uniformly hirsute (Fig. 71D)',</t>
+  </si>
+  <si>
+    <t>128  Cheliceral_fang_shape / irregular regular_parallel_ridges,</t>
+  </si>
+  <si>
+    <t>129  Cheliceral_hairs / 'separate (two patches, Fig. 71F)' 'continuous (Fig. 60F)',</t>
+  </si>
+  <si>
+    <t>130  Cheliceral_boss / more_or_less_flush_with_clypeus projecting_beyond_clypeus,</t>
+  </si>
+  <si>
+    <t>131  Carapace_texture / concave_or_flat with_a_prominent_projection,</t>
+  </si>
+  <si>
+    <t>132  'Carapace height (male)' / sparse 'in a dense field, or fields',</t>
+  </si>
+  <si>
+    <t>133  Carapace_coloration / as_other_setae thick_and_strongly_serrate,</t>
+  </si>
+  <si>
+    <t>134  Carapace_shape / rebordered not_swollen_distally,</t>
+  </si>
+  <si>
+    <t>135  Carapace_hairiness / 'visible seam  (Fig. 27C)' fused,</t>
+  </si>
+  <si>
+    <t>136  Carapace_pars_stridens / 'subrectangular (Fig. 21B)' 'triangular (Fig. 5A)',</t>
+  </si>
+  <si>
+    <t>137  Regular_pars_stridens / 'elongated, longer than wide' subequal_or_wider_than_long,</t>
+  </si>
+  <si>
+    <t>138  Interocular_area / present absent,</t>
+  </si>
+  <si>
+    <t>139  Clypeus / 'unmodified, like other setal bases' raised,</t>
+  </si>
+  <si>
+    <t>140  'ocular and clypeal region setae distribution (male)' / 'anterior (Fig. 94A-D)' 'medial (Fig. 94J-K)',</t>
+  </si>
+  <si>
+    <t>141  'Clypeal setae morphology (male clypeal glands)' / narrow broad,</t>
+  </si>
+  <si>
+    <t>142  Labium_distal_margin / with_paired_humps 'ellipisoid, smooth',</t>
+  </si>
+  <si>
+    <t>143  'Labium-sternum connection' / folium_or_similar_pattern 'uniform (e.g. tan) or unpigmented',</t>
+  </si>
+  <si>
+    <t>144  Labium_shape / bilateral_spots_or_blotches distinct_central_band,</t>
+  </si>
+  <si>
+    <t>145  Sternum_shape / 'dark edged by white (Kochiura, Anelosimus, Fig. 94G, J)' 'light edged by dark (Fig. 94H)' 'Ameridion, light edged by white (Fig. 94I)',</t>
+  </si>
+  <si>
+    <t>146  Sternocoxal_tubercles / silver 'non-reflective, dull',</t>
+  </si>
+  <si>
+    <t>147  Sternum_setal_bases / smooth sclerotized,</t>
+  </si>
+  <si>
+    <t>148  Pedicel_location / continuous 'separate (two patches)',</t>
+  </si>
+  <si>
+    <t>149  Pedicel_lyriform_organs / absent 'present (Fig. 81F)',</t>
+  </si>
+  <si>
+    <t>150  Abdominal_shape / absent 'present (Figs. 16B-C, 21A, 24D-E)',</t>
+  </si>
+  <si>
+    <t>151  'Abdominal color pattern (in alcohol)' / 'weakly keeled (Figs. 67F, 74F)' 'strongly keeled and elongate (Figs. 16B-C, 24D-E, 42F)',</t>
+  </si>
+  <si>
+    <t>152  Abdominal_folium_pattern / three_or_less four_or_more,</t>
+  </si>
+  <si>
+    <t>153  Dorsal_band / present absent,</t>
+  </si>
+  <si>
+    <t>154  Abdominal_dot_pigment / flush_with_abdominal_surface 'on a ridge (Figs 32D, 72A-B)',</t>
+  </si>
+  <si>
+    <t>155  'Abdominal pedicel area (male)' / smooth grooved,</t>
+  </si>
+  <si>
+    <t>156  Abdominal_pedicel_area_sclerotization / absent present,</t>
+  </si>
+  <si>
+    <t>157  'Abdominal supra-pedicellate nubbins' / angled_dorsally perpendicular_or_angled_ventrally,</t>
+  </si>
+  <si>
+    <t>158  'Stridulatory pick row (SPR)' / 'low, gently ridged' 'acute, almost pointed',</t>
+  </si>
+  <si>
+    <t>159  SPR_form / straight_or_slightly_irregular distinctly_curved 'argyrodine, dorsal picks aside others',</t>
+  </si>
+  <si>
+    <t>160  SPR_pick_number / subequal_to_ventral_pick_spacing distinctly_compressed,</t>
+  </si>
+  <si>
+    <t>161  'SPR ectally-oriented picks' / lateral dorsal,</t>
+  </si>
+  <si>
+    <t>162  SPR_insertion / absent present,</t>
+  </si>
+  <si>
+    <t>163  SPR_region / absent present,</t>
+  </si>
+  <si>
+    <t>164  'SPR mesally-oriented picks' / absent present,</t>
+  </si>
+  <si>
+    <t>165  'SPR mesally-oriented picks relative to sagittal plane' / 'distinctly disk-like, strongly rugose' 'inconspicuous, weakly rugose or smooth (Figs. 4F, 24D, 47A)',</t>
+  </si>
+  <si>
+    <t>166  SPR_setal_bases / smooth with_scuta,</t>
+  </si>
+  <si>
+    <t>167  SPR / 'conspicuous, deep, contrastingly colored' 'inconspicuous, superficial, unicolorous',</t>
+  </si>
+  <si>
+    <t>168  SPR_dorsal_pick_spacing / 'present (e.g. Fig. 3A-E)' 'absent (Fig. 7D)',</t>
+  </si>
+  <si>
+    <t>169  SPR_relative_to_pedicel / in_one_pair_of_sockets in_a_row,</t>
+  </si>
+  <si>
+    <t>170  Additional_stridulatory_picks / '&gt; ten' '&lt;= eight',</t>
+  </si>
+  <si>
+    <t>171  'Supra pedicillate dorsal (11 oclock) proprioreceptor' / small large_and_darkened,</t>
+  </si>
+  <si>
+    <t>172  'Supra pedicillate ventrolateral  (4 oclock) proprioreceptor' / 'present (Figs. 45E, 61F)' 'absent (Figs. 16E, 78A)' 'invaginated (Figs. 9D,  63G)',</t>
+  </si>
+  <si>
+    <t>173  Abdominal_suprapedicellate_apodemes / 'large and fleshy (Figs. 55H, 61F)' 'small, less than half the length of its setae (Fig. 38B)',</t>
+  </si>
+  <si>
+    <t>174  Abdominal_surface / present absent,</t>
+  </si>
+  <si>
+    <t>175  Sigilla / three_or_more two,</t>
+  </si>
+  <si>
+    <t>176  Epiandrous_fusules / present absent,</t>
+  </si>
+  <si>
+    <t>177  Epiandrous_fusule_arrangement / attenuate palmate 'semi-palmate',</t>
+  </si>
+  <si>
+    <t>178  Epiandrous_fusule_pair_number / 'dense, &gt; half of surface covered by denticles (Figs. 2D, 9E, 11D, 12G, 45G, 47E, 58G, 80D)' 'sparse &lt; half of surface with denticles',</t>
+  </si>
+  <si>
+    <t>179  Male_seminal_vesicula / 'numerous, more than six' three_to_five one_to_two,</t>
+  </si>
+  <si>
+    <t>180  Colulus / smooth serrated,</t>
+  </si>
+  <si>
+    <t>181  Colulus_size / present absent,</t>
+  </si>
+  <si>
+    <t>182  Colular_setae / subequal 'robust, clearly larger than femur II',</t>
+  </si>
+  <si>
+    <t>183  'Colular setae number (female)' / present absent,</t>
+  </si>
+  <si>
+    <t>184  'Palpal claw (female)' / '3rd longest (typical leg formula 1243)' '2nd longest (typical leg formula 1423)' 'longest (typical leg formula 4123)',</t>
+  </si>
+  <si>
+    <t>185  'Palpal claw form (female)' / 3rd_longest 2nd_longest longest,</t>
+  </si>
+  <si>
+    <t>186  'Palpal claw dentition (female)' / metatarsus_longer metatarsus_shorter,</t>
+  </si>
+  <si>
+    <t>187  'Palpal tibial trichobothria (female)' / metatarsus_longer metatarsus_shorter,</t>
+  </si>
+  <si>
+    <t>188  'Palpal tarsal setae (female)' / like_other_macrosetae thickened_ventrally,</t>
+  </si>
+  <si>
+    <t>189  'Palpal tarsus dorsal setae (female)' / proximal distal submedian,</t>
+  </si>
+  <si>
+    <t>190  Femur_I_relative_to_II / present absent,</t>
+  </si>
+  <si>
+    <t>191  Femoral_macrosetae / absent present,</t>
+  </si>
+  <si>
+    <t>192  'Leg IV relative length (male)' / absent present,</t>
+  </si>
+  <si>
+    <t>193  'Leg IV relative length (female)' / smooth 'serrated (theridioid tarsal comb)',</t>
+  </si>
+  <si>
+    <t>194  Femur_vs._metatarsus_length / smooth theridiid_grooves,</t>
+  </si>
+  <si>
+    <t>195  Metatarsus_vs._tibia_length / 'simple, straight' curved_hooks,</t>
+  </si>
+  <si>
+    <t>196  Metatarsal_ventral_macrosetae / straight distinctly_notched,</t>
+  </si>
+  <si>
+    <t>197  Metatarsus_I_trichobothrium_position / 'uniform, ungrouped' 'grouped, flat-tipped (Figs. 6B-C, 8GC-D)',</t>
+  </si>
+  <si>
+    <t>198  Metatarsus_III_trichobothrium / 'smaller than setal sockets (normal)' enlarged,</t>
+  </si>
+  <si>
+    <t>199  Metatarsus_IV_trichobothrium / 'short, at most subequal' 'elongate, longer (Figs. 19E, 21C, 23D, 32H, 57F, 58F)',</t>
+  </si>
+  <si>
+    <t>200  'Patella-tibia autospasy' / equal_or_shorter stout_and_distinctly_longer minute,</t>
+  </si>
+  <si>
+    <t>201  'Tarsus IV ventral setae (comb)' / abdominal_apex 'subapical, abdomen extending beyond spinnerets',</t>
+  </si>
+  <si>
+    <t>202  Tarsus_IV_ventral_setal_surface / absent 'present  (Figs. 63B, 74A)',</t>
+  </si>
+  <si>
+    <t>203  Tarsus_IV_comb_serrations / like_ectal_surface with_parallel_ridges,</t>
+  </si>
+  <si>
+    <t>204  Tarsus_IV_comb_bristle_dorsal_margin / normal reduced,</t>
+  </si>
+  <si>
+    <t>205  Tarsus_I_ventral_setae / 'large (over 40 spigots)' 'small (less than 35 spigots)',</t>
+  </si>
+  <si>
+    <t>206  Tarsal_organ_size / subequal_to__PLS_CY 'longer than PLS CY (Figs. 68E, 78B, 82D)',</t>
+  </si>
+  <si>
+    <t>207  'Tarsus IV central claw vs. laterals (male)' / normal enlarged,</t>
+  </si>
+  <si>
+    <t>208  'Tarsus IV central claw vs. laterals (female)' / 'not modified, subequal or smaller than ampullates' 'huge and elongated, much larger than ampullates',</t>
+  </si>
+  <si>
+    <t>209  Spinneret_insertion / smooth grooved,</t>
+  </si>
+  <si>
+    <t>210  Spinneret_sclerotized_ring / two one,</t>
+  </si>
+  <si>
+    <t>211  ALS_median_surface / five_or_more four_or_less,</t>
+  </si>
+  <si>
+    <t>212  'ALS piriform (PI) spigot bases' / present absent,</t>
+  </si>
+  <si>
+    <t>213  ALS_piriform_field_size / two one,</t>
+  </si>
+  <si>
+    <t>214  PLS_flagelliform_spigot_length / circumference_subequal_or_less_than_CY circumference_distinctly_greater_than_CY,</t>
+  </si>
+  <si>
+    <t>215  PLS_post_CY_base / 'normal, round' flattened,</t>
+  </si>
+  <si>
+    <t>216  'PLS, PMS CY spigot bases' / 'normal, round' flattened,</t>
+  </si>
+  <si>
+    <t>217  CY_shaft_surface / entire lobed,</t>
+  </si>
+  <si>
+    <t>218  PLS_CY_spigot_number / more_or_less_parallel end_to_end,</t>
+  </si>
+  <si>
+    <t>219  PLS_AC_spigot_number / absent present,</t>
+  </si>
+  <si>
+    <t>220  PLS_flagelliform_spigot / present absent,</t>
+  </si>
+  <si>
+    <t>221  'PLS AG spigot number (female)' / distinct 'indistinct, absent (Fig. 1G)',</t>
+  </si>
+  <si>
+    <t>222  PLS_AG_spigot_size / five_or_more four three two one none,</t>
+  </si>
+  <si>
+    <t>223  PLS_anterior_AG_spigot_shape / 'short, subequal to CY shaft' clearly_longer_than_any_CY_shaft,</t>
+  </si>
+  <si>
+    <t>224  PLS_posterior_AG_spigot_shape / present absent,</t>
+  </si>
+  <si>
+    <t>225  PLS_aggregate_gland_form / orb 'linyphioid knock-down sheet web (Fig. 99C)' 'chickenwire, rectangular orb (Synotaxus, Fig. 95A)' 'cobweb (Figs. 97G, 99A-B, 100A-F, 101A-E)' 'Spintharine H-web (Fig. 97A)' 'network mesh web - with foraging field below (rupununi-lorenzo)' 'dry line-web',</t>
+  </si>
+  <si>
+    <t>226  PLS_theridiid_type_AG_position / present absent,</t>
+  </si>
+  <si>
+    <t>227  'PLS AG and FL (male)' / in_sheet_or_tangle on_gumfoot_lines,</t>
+  </si>
+  <si>
+    <t>228  PMS_mAP_nubbins / present absent,</t>
+  </si>
+  <si>
+    <t>229  PMS_CY_spigot_base / absent present,</t>
+  </si>
+  <si>
+    <t>230  PMS_AC_spigot_number / spherical_to_lenticular 'stalked (Fig. 88E, 98D).',</t>
+  </si>
+  <si>
+    <t>231  'PMS minor ampullate (mAP) spigot shaft length' / suboval_or_roundish basal_knob rhomboid elongated Spiky,</t>
+  </si>
+  <si>
+    <t>232  'Prey-catching web' / 'fine, densely woven' 'thick, coarsely spun',</t>
+  </si>
+  <si>
+    <t>233  Web_form / 'smooth (Fig. 88A-B, E-H)' 'spiny (Fig. 88C-D)',</t>
+  </si>
+  <si>
+    <t>234  Sticky_silk_in_web / solitary communal,</t>
+  </si>
+  <si>
+    <t>235  Sticky_silk_placement / 'roughly equal &lt;2x female-biased' '&gt;3x female-biased',</t>
+  </si>
+  <si>
+    <t>236  'Wrap-bite attack' / 'both palps present before (and after) final molt' one_palp_amputated_prior_to_final_molt,</t>
+  </si>
+  <si>
+    <t>237  Sticky_silk_wrap_attack / transfer_sperm pseudocopulation,</t>
+  </si>
+  <si>
+    <t>238  Egg_sac_surface / ipsilateral contralateral,</t>
+  </si>
+  <si>
+    <t>239  Egg_case_structure / independent_of_copulation during_copulation_sequence,</t>
+  </si>
+  <si>
+    <t>240  Egg_sac_outermost_fibers / present absent,</t>
+  </si>
+  <si>
+    <t>241  Egg_sac_fiber_ultrastructure / no_rythmic_movements rythmic_expansion_of_haematodocha,</t>
+  </si>
+  <si>
+    <t>242  Web_construction / below above,</t>
+  </si>
+  <si>
+    <t>1  Epigynal ventral margin</t>
+  </si>
+  <si>
+    <t>2  Epigynal_dorsal_plate</t>
+  </si>
+  <si>
+    <t>3  Epigynal_plate_surface</t>
+  </si>
+  <si>
+    <t>4  Copulatory_pore_position</t>
+  </si>
+  <si>
+    <t>5  Copulatory_pore_shape</t>
+  </si>
+  <si>
+    <t>6  Copulatory_bursa_anterior_margin</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Comment in Agnarsson (2004)</t>
+  </si>
+  <si>
+    <t>Epigynal scapes are widespread in araneoid spiders (see e.g. Scharff &amp; Coddington, 1997: character 28), but to my best knowledge, Anelosimus pulchellus and A. vittatus, along with A. ethicus (pers. observ.), are unique among theridiids in having an araneid-like epigynal scape. Thymoites unimaculatum has a similar ventral scape-like projection (Fig. 85F), here considered putatively homologous, although the homology is rejected on the cladogram.</t>
+  </si>
+  <si>
+    <t>Pimoids and linyphiids typically have a distinct dorsal plate in the epigynum (see e.g. Millidge, 1984: fig.9; Hormiga, 1994a: fig.60). Such a plate is absent in theridiids and other taxa in this study (e.g. Figs. 2E, 7E, 12E, 33E, 45F, 50C, 55A, 59F, 63A, 64G, 86G, 93F, G).</t>
+  </si>
+  <si>
+    <t>In most theridiids the epigynal plate is smooth (e.g. Figs 12E, 40B). On this cladogram the presence of conspicuous ridges on the epigynal plate is a synapomorphy of Anelosimus (e.g. Figs 21G, 24G) secondarily lost in clade 19 (Fig. 29A). Presumably the theridiid epigynal plate is a homologue of the ventral plate of linyphioids.</t>
+  </si>
+  <si>
+    <t>anatomical</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>neo</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>face?</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>legs</t>
+  </si>
+  <si>
+    <t>Metafemur</t>
+  </si>
+  <si>
+    <t>extremities</t>
+  </si>
+  <si>
+    <t>A conspicuous projection overlies the copulatory openings in many araneoids (see e.g. Pimoa rupicola in Hormiga, 1994a: figs 27-29). In theridiids and Synotaxus, such a projection is generally absent and the openings are thus clearly visible in ventral view (Figs 12E, 22G, 69G). This character is inapplicable to the haplogyne Tetragnatha.</t>
+  </si>
+  <si>
+    <t>Figs 38F, 41G, 61G, 68G, 74G, 80F).</t>
+  </si>
+  <si>
+    <t>(0) posterior; (1) lateral or anterior.</t>
+  </si>
+  <si>
+    <t>(0) entire, broadly transverse (Fig. 19B); (1) medially acute (Figs 22G, 40B).</t>
+  </si>
+  <si>
+    <t>(0) wide (Figs 45F, 53F); (1) narrow slits (Figs 38F, 41G, 61G, 68G, 74G, 80F).</t>
+  </si>
+  <si>
+    <t>(0) caudal, under a dorsal plate; (1) ventral.</t>
+  </si>
+  <si>
+    <t>(0) smooth (Fig. 12E); (1) ridged (Fig. 21G).</t>
+  </si>
+  <si>
+    <t>(0) absent; (1) present.</t>
+  </si>
+  <si>
+    <t>(0) entire (Fig. 15G); (1) with scape (Fig. 27D).</t>
+  </si>
+  <si>
+    <t>8  Copulatory_duct_trajectory</t>
+  </si>
+  <si>
+    <t>7  Copulatory_duct$_spermathecal_junction</t>
+  </si>
+  <si>
+    <t>9  Copulatory_duct_loops_relative_to_spermathecae</t>
+  </si>
+  <si>
+    <t>10  Spermathecal_number</t>
+  </si>
+  <si>
+    <t>11  Spermathecal_shape</t>
+  </si>
+  <si>
+    <t>12  Spermathecal_accessory_lobes</t>
   </si>
 </sst>
 </file>
@@ -34033,10 +34829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34044,10 +34840,12 @@
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="2" max="2" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="13"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="13" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="13" t="s">
         <v>1439</v>
       </c>
@@ -34057,8 +34855,14 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="45">
+      <c r="D1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -34068,8 +34872,14 @@
       <c r="C2" s="13" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -34079,8 +34889,14 @@
       <c r="C3" s="13" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -34090,8 +34906,14 @@
       <c r="C4" s="13" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -34101,8 +34923,14 @@
       <c r="C5" s="13" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
+      <c r="D5" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -34112,8 +34940,14 @@
       <c r="C6" s="13" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -34123,8 +34957,14 @@
       <c r="C7" s="13" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -34134,8 +34974,14 @@
       <c r="C8" s="13" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
+      <c r="D8" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -34145,8 +34991,14 @@
       <c r="C9" s="13" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -34156,8 +35008,14 @@
       <c r="C10" s="13" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -34167,8 +35025,14 @@
       <c r="C11" s="13" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -34178,8 +35042,14 @@
       <c r="C12" s="13" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -34189,8 +35059,14 @@
       <c r="C13" s="13" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -34200,8 +35076,14 @@
       <c r="C14" s="13" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -34211,8 +35093,14 @@
       <c r="C15" s="13" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30">
+      <c r="D15" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -34222,8 +35110,14 @@
       <c r="C16" s="13" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -34233,8 +35127,14 @@
       <c r="C17" s="13" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30">
+      <c r="D17" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -34244,8 +35144,14 @@
       <c r="C18" s="13" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30">
+      <c r="D18" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -34255,8 +35161,14 @@
       <c r="C19" s="13" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30">
+      <c r="D19" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -34266,8 +35178,14 @@
       <c r="C20" s="13" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="45">
+      <c r="D20" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -34277,8 +35195,14 @@
       <c r="C21" s="13" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -34288,71 +35212,113 @@
       <c r="C22" s="13" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1511</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="45">
+      <c r="D23" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45">
       <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1513</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>1515</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="45">
+      <c r="D25" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45">
       <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>1517</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>1519</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30">
+      <c r="D27" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1521</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>1522</v>
+      <c r="D28" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1769</v>
       </c>
     </row>
   </sheetData>
@@ -40923,7 +41889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D103" workbookViewId="0">
+    <sheetView topLeftCell="D103" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -44245,6 +45211,1284 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C243"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="105">
+      <c r="A2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60">
+      <c r="A3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75">
+      <c r="A4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -46491,7 +48735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F278"/>
   <sheetViews>
